--- a/src/assets/zxsj_mb/zxtb_k061_glryxx.xlsx
+++ b/src/assets/zxsj_mb/zxtb_k061_glryxx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>年度</t>
   </si>
@@ -49,9 +49,6 @@
     <t>工作职务</t>
   </si>
   <si>
-    <t>入职年月</t>
-  </si>
-  <si>
     <t>殷**</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>副校长</t>
   </si>
   <si>
-    <t>2013-08-09</t>
-  </si>
-  <si>
     <t>赵**</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>信息中心副主任</t>
   </si>
   <si>
-    <t>2013-08-10</t>
-  </si>
-  <si>
     <t>钟**</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>教师</t>
   </si>
   <si>
-    <t>2013-08-11</t>
-  </si>
-  <si>
     <t>周**</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>课程中心副主任</t>
   </si>
   <si>
-    <t>2013-08-12</t>
-  </si>
-  <si>
     <t>朱**</t>
   </si>
   <si>
@@ -167,9 +152,6 @@
   </si>
   <si>
     <t>人事干部</t>
-  </si>
-  <si>
-    <t>2013-08-13</t>
   </si>
 </sst>
 </file>
@@ -177,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -219,6 +201,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -226,14 +267,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,121 +343,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -371,19 +353,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,25 +485,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,13 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,115 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,15 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -604,26 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,6 +601,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -658,22 +645,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,133 +679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5"/>
@@ -1180,16 +1162,16 @@
     <col min="2" max="2" width="8.33333333333333" customWidth="1"/>
     <col min="3" max="3" width="20.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="12.4166666666667" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="5" max="5" width="8.77777777777778" customWidth="1"/>
     <col min="6" max="6" width="20.1666666666667" customWidth="1"/>
-    <col min="7" max="8" width="16.8333333333333" customWidth="1"/>
-    <col min="9" max="9" width="8.91666666666667" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="20.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="12.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="10.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="14.8333333333333" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="31" customHeight="1" spans="1:12">
+    <row r="1" customFormat="1" ht="31" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,201 +1205,191 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="1:12">
+    <row r="2" ht="25" customHeight="1" spans="1:11">
       <c r="A2" s="3">
         <v>2019</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="1:12">
+    <row r="3" ht="25" customHeight="1" spans="1:11">
       <c r="A3" s="3">
         <v>2019</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:12">
+    <row r="4" ht="25" customHeight="1" spans="1:11">
       <c r="A4" s="3">
         <v>2019</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="5" ht="25" customHeight="1" spans="1:12">
+    <row r="5" ht="25" customHeight="1" spans="1:11">
       <c r="A5" s="3">
         <v>2019</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="6" ht="25" customHeight="1" spans="1:12">
+    <row r="6" ht="25" customHeight="1" spans="1:11">
       <c r="A6" s="3">
         <v>2019</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+      <formula1>"博士研究生,硕士研究生,本科,专科,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
+      <formula1>"博士,硕士,学士,无"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
